--- a/doc/3_機能設計/機能一覧.xlsx
+++ b/doc/3_機能設計/機能一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tistgu4s.sharepoint.com/sites/Web127/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\album\album-web\doc\3_機能設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_9EDC7BACA27ED6033C6ED951E316A32A2C73FBA1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{363B0D51-7A31-4111-B641-306BA2CE3319}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B040FDB-3CD9-4EE7-BD05-22D4F28EAB99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1660" yWindow="1660" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>アカウント作成</t>
   </si>
@@ -190,9 +190,6 @@
     <t>S014</t>
   </si>
   <si>
-    <t>チームTに登録されているチームを全件取得する</t>
-  </si>
-  <si>
     <t>チーム一覧</t>
   </si>
   <si>
@@ -210,6 +207,44 @@
   </si>
   <si>
     <t>プロフィール詳細表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム名重複精査（登録済みのチーム名は登録できない）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームTに登録されているチームを全件取得する。取得順はチームID昇順とする。</t>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウジュン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -594,9 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -686,7 +719,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -792,6 +825,9 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -815,7 +851,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
@@ -826,10 +862,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
@@ -837,13 +873,13 @@
     </row>
     <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -854,6 +890,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F4A7CA3F2747CF4DB46C6F0EBFE7E74D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4d863d8758edd742fde86654c15b88dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="80f168d0-31ba-41b4-9a5b-65c98e23d1c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cd76e96c23b7b994ad24a657ff1d1f4" ns2:_="">
     <xsd:import namespace="80f168d0-31ba-41b4-9a5b-65c98e23d1c0"/>
@@ -1003,22 +1054,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8943EB77-33D6-4C05-9CF2-B66619373361}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="80f168d0-31ba-41b4-9a5b-65c98e23d1c0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32031F3-A5C4-4862-8537-92B35F7584FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A737117F-5DC7-4728-8581-DDC3E25D5F67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1034,28 +1094,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32031F3-A5C4-4862-8537-92B35F7584FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8943EB77-33D6-4C05-9CF2-B66619373361}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="80f168d0-31ba-41b4-9a5b-65c98e23d1c0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>